--- a/raw_data/Hebrew_WS/[Hebrew_WS].xlsx
+++ b/raw_data/Hebrew_WS/[Hebrew_WS].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1277">
   <si>
     <t>itemID</t>
   </si>
@@ -3856,7 +3856,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3876,6 +3876,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3894,8 +3910,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3908,7 +3926,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4240,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4300,6 +4320,9 @@
       <c r="E2" t="s">
         <v>1275</v>
       </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -4317,6 +4340,9 @@
       <c r="E3" t="s">
         <v>1275</v>
       </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -4334,6 +4360,9 @@
       <c r="E4" t="s">
         <v>1275</v>
       </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -4351,6 +4380,9 @@
       <c r="E5" t="s">
         <v>1275</v>
       </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -4368,6 +4400,9 @@
       <c r="E6" t="s">
         <v>1275</v>
       </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -4385,6 +4420,9 @@
       <c r="E7" t="s">
         <v>1275</v>
       </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -4402,6 +4440,9 @@
       <c r="E8" t="s">
         <v>1275</v>
       </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -4419,6 +4460,9 @@
       <c r="E9" t="s">
         <v>1275</v>
       </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -4436,6 +4480,9 @@
       <c r="E10" t="s">
         <v>1275</v>
       </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -4453,6 +4500,9 @@
       <c r="E11" t="s">
         <v>1275</v>
       </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -4470,6 +4520,9 @@
       <c r="E12" t="s">
         <v>1275</v>
       </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -4487,6 +4540,9 @@
       <c r="E13" t="s">
         <v>1275</v>
       </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -4504,6 +4560,9 @@
       <c r="E14" t="s">
         <v>1275</v>
       </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -4521,6 +4580,9 @@
       <c r="E15" t="s">
         <v>1275</v>
       </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -4538,8 +4600,11 @@
       <c r="E16" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4555,8 +4620,11 @@
       <c r="E17" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4572,8 +4640,11 @@
       <c r="E18" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4589,8 +4660,11 @@
       <c r="E19" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4606,8 +4680,11 @@
       <c r="E20" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4623,8 +4700,11 @@
       <c r="E21" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4640,8 +4720,11 @@
       <c r="E22" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4657,8 +4740,11 @@
       <c r="E23" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4674,8 +4760,11 @@
       <c r="E24" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4691,8 +4780,11 @@
       <c r="E25" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -4708,8 +4800,11 @@
       <c r="E26" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4725,8 +4820,11 @@
       <c r="E27" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -4742,8 +4840,11 @@
       <c r="E28" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -4759,8 +4860,11 @@
       <c r="E29" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4776,8 +4880,11 @@
       <c r="E30" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4793,8 +4900,11 @@
       <c r="E31" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4810,8 +4920,11 @@
       <c r="E32" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -4827,8 +4940,11 @@
       <c r="E33" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +4960,11 @@
       <c r="E34" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -4861,8 +4980,11 @@
       <c r="E35" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -4878,8 +5000,11 @@
       <c r="E36" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -4895,8 +5020,11 @@
       <c r="E37" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4912,8 +5040,11 @@
       <c r="E38" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4929,8 +5060,11 @@
       <c r="E39" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4946,8 +5080,11 @@
       <c r="E40" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -4963,8 +5100,11 @@
       <c r="E41" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -4980,8 +5120,11 @@
       <c r="E42" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4997,8 +5140,11 @@
       <c r="E43" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -5014,8 +5160,11 @@
       <c r="E44" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -5031,8 +5180,11 @@
       <c r="E45" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -5048,8 +5200,11 @@
       <c r="E46" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5065,8 +5220,11 @@
       <c r="E47" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -5082,8 +5240,11 @@
       <c r="E48" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="E49" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -5116,8 +5280,11 @@
       <c r="E50" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -5133,8 +5300,11 @@
       <c r="E51" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -5150,8 +5320,11 @@
       <c r="E52" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -5167,8 +5340,11 @@
       <c r="E53" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5184,8 +5360,11 @@
       <c r="E54" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -5201,8 +5380,11 @@
       <c r="E55" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -5218,8 +5400,11 @@
       <c r="E56" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5235,8 +5420,11 @@
       <c r="E57" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -5252,8 +5440,11 @@
       <c r="E58" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -5269,8 +5460,11 @@
       <c r="E59" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="H59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5286,8 +5480,11 @@
       <c r="E60" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -5303,8 +5500,11 @@
       <c r="E61" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="H61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -5320,8 +5520,11 @@
       <c r="E62" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="H62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -5337,8 +5540,11 @@
       <c r="E63" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -5354,8 +5560,11 @@
       <c r="E64" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -5371,8 +5580,11 @@
       <c r="E65" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="H65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -5388,8 +5600,11 @@
       <c r="E66" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="H66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -5405,8 +5620,11 @@
       <c r="E67" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="H67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5422,8 +5640,11 @@
       <c r="E68" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="H68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5439,8 +5660,11 @@
       <c r="E69" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="H69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5456,8 +5680,11 @@
       <c r="E70" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="H70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -5473,8 +5700,11 @@
       <c r="E71" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -5490,8 +5720,11 @@
       <c r="E72" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="H72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5507,8 +5740,11 @@
       <c r="E73" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -5524,8 +5760,11 @@
       <c r="E74" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="H74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -5541,8 +5780,11 @@
       <c r="E75" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="H75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -5558,8 +5800,11 @@
       <c r="E76" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="H76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -5575,8 +5820,11 @@
       <c r="E77" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="H77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -5592,8 +5840,11 @@
       <c r="E78" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="H78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -5609,8 +5860,11 @@
       <c r="E79" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="H79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -5626,8 +5880,11 @@
       <c r="E80" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="H80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -5643,8 +5900,11 @@
       <c r="E81" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="H81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -5660,8 +5920,11 @@
       <c r="E82" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="H82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -5677,8 +5940,11 @@
       <c r="E83" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="H83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5694,8 +5960,11 @@
       <c r="E84" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="H84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -5711,8 +5980,11 @@
       <c r="E85" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="H85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -5728,8 +6000,11 @@
       <c r="E86" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="H86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5745,8 +6020,11 @@
       <c r="E87" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -5762,8 +6040,11 @@
       <c r="E88" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="H88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -5779,8 +6060,11 @@
       <c r="E89" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="H89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -5796,8 +6080,11 @@
       <c r="E90" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="H90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5813,8 +6100,11 @@
       <c r="E91" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="H91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -5830,8 +6120,11 @@
       <c r="E92" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="H92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -5847,8 +6140,11 @@
       <c r="E93" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="H93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -5864,8 +6160,11 @@
       <c r="E94" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="H94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -5881,8 +6180,11 @@
       <c r="E95" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="H95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -5898,8 +6200,11 @@
       <c r="E96" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="H96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -5915,8 +6220,11 @@
       <c r="E97" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="H97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -5932,8 +6240,11 @@
       <c r="E98" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="H98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -5949,8 +6260,11 @@
       <c r="E99" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="H99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -5966,8 +6280,11 @@
       <c r="E100" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="H100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -5983,8 +6300,11 @@
       <c r="E101" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="H101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -6000,8 +6320,11 @@
       <c r="E102" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="H102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6017,8 +6340,11 @@
       <c r="E103" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="H103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6034,8 +6360,11 @@
       <c r="E104" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="H104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -6051,8 +6380,11 @@
       <c r="E105" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="H105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -6068,8 +6400,11 @@
       <c r="E106" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="H106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -6085,8 +6420,11 @@
       <c r="E107" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="H107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -6102,8 +6440,11 @@
       <c r="E108" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="H108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6119,8 +6460,11 @@
       <c r="E109" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="H109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -6136,8 +6480,11 @@
       <c r="E110" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="H110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -6153,8 +6500,11 @@
       <c r="E111" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="H111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6170,8 +6520,11 @@
       <c r="E112" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="H112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -6187,8 +6540,11 @@
       <c r="E113" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="H113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -6204,8 +6560,11 @@
       <c r="E114" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="H114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -6221,8 +6580,11 @@
       <c r="E115" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="H115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -6238,8 +6600,11 @@
       <c r="E116" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="H116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -6255,8 +6620,11 @@
       <c r="E117" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="H117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6272,8 +6640,11 @@
       <c r="E118" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="H118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -6289,8 +6660,11 @@
       <c r="E119" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="H119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -6306,8 +6680,11 @@
       <c r="E120" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="H120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -6323,8 +6700,11 @@
       <c r="E121" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="H121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -6340,8 +6720,11 @@
       <c r="E122" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="H122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -6357,8 +6740,11 @@
       <c r="E123" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="H123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6374,8 +6760,11 @@
       <c r="E124" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="H124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6391,8 +6780,11 @@
       <c r="E125" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="H125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6408,8 +6800,11 @@
       <c r="E126" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="H126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -6425,8 +6820,11 @@
       <c r="E127" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="H127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -6442,8 +6840,11 @@
       <c r="E128" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="H128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -6459,8 +6860,11 @@
       <c r="E129" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="H129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6476,8 +6880,11 @@
       <c r="E130" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="H130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6493,8 +6900,11 @@
       <c r="E131" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="H131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -6510,8 +6920,11 @@
       <c r="E132" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="H132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -6527,8 +6940,11 @@
       <c r="E133" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="H133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -6544,8 +6960,11 @@
       <c r="E134" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="H134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -6561,8 +6980,11 @@
       <c r="E135" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="H135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6578,8 +7000,11 @@
       <c r="E136" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="H136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6595,8 +7020,11 @@
       <c r="E137" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="H137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -6612,8 +7040,11 @@
       <c r="E138" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="H138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -6629,8 +7060,11 @@
       <c r="E139" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="H139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -6646,8 +7080,11 @@
       <c r="E140" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="H140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -6663,8 +7100,11 @@
       <c r="E141" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="H141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -6680,8 +7120,11 @@
       <c r="E142" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="H142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -6697,8 +7140,11 @@
       <c r="E143" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="H143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -6714,8 +7160,11 @@
       <c r="E144" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="H144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -6731,8 +7180,11 @@
       <c r="E145" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="H145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -6748,8 +7200,11 @@
       <c r="E146" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="H146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -6765,8 +7220,11 @@
       <c r="E147" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="H147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -6782,8 +7240,11 @@
       <c r="E148" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="H148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -6799,8 +7260,11 @@
       <c r="E149" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="H149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -6816,8 +7280,11 @@
       <c r="E150" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="H150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -6833,8 +7300,11 @@
       <c r="E151" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="H151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -6850,8 +7320,11 @@
       <c r="E152" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="H152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -6867,8 +7340,11 @@
       <c r="E153" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="H153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -6884,8 +7360,11 @@
       <c r="E154" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="H154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -6901,8 +7380,11 @@
       <c r="E155" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="H155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -6918,8 +7400,11 @@
       <c r="E156" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="H156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -6935,8 +7420,11 @@
       <c r="E157" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="H157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -6952,8 +7440,11 @@
       <c r="E158" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="H158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -6969,8 +7460,11 @@
       <c r="E159" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="H159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -6986,8 +7480,11 @@
       <c r="E160" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="H160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -7003,8 +7500,11 @@
       <c r="E161" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="H161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -7020,8 +7520,11 @@
       <c r="E162" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="H162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -7037,8 +7540,11 @@
       <c r="E163" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="H163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -7054,8 +7560,11 @@
       <c r="E164" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="H164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -7071,8 +7580,11 @@
       <c r="E165" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="H165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -7088,8 +7600,11 @@
       <c r="E166" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="H166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -7105,8 +7620,11 @@
       <c r="E167" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="H167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -7122,8 +7640,11 @@
       <c r="E168" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="H168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -7139,8 +7660,11 @@
       <c r="E169" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="H169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -7156,8 +7680,11 @@
       <c r="E170" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="H170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -7173,8 +7700,11 @@
       <c r="E171" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="H171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -7190,8 +7720,11 @@
       <c r="E172" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="H172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -7207,8 +7740,11 @@
       <c r="E173" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="H173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -7224,8 +7760,11 @@
       <c r="E174" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="H174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -7241,8 +7780,11 @@
       <c r="E175" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="H175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -7258,8 +7800,11 @@
       <c r="E176" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="H176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -7275,8 +7820,11 @@
       <c r="E177" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="H177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -7292,8 +7840,11 @@
       <c r="E178" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="H178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -7309,8 +7860,11 @@
       <c r="E179" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="H179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -7326,8 +7880,11 @@
       <c r="E180" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="H180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -7343,8 +7900,11 @@
       <c r="E181" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="H181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -7360,8 +7920,11 @@
       <c r="E182" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="H182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -7377,8 +7940,11 @@
       <c r="E183" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="H183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -7394,8 +7960,11 @@
       <c r="E184" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="H184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -7411,8 +7980,11 @@
       <c r="E185" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="H185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -7428,8 +8000,11 @@
       <c r="E186" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="H186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -7445,8 +8020,11 @@
       <c r="E187" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="H187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -7462,8 +8040,11 @@
       <c r="E188" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="H188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -7479,8 +8060,11 @@
       <c r="E189" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="H189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -7496,8 +8080,11 @@
       <c r="E190" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="H190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -7513,8 +8100,11 @@
       <c r="E191" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="H191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -7530,8 +8120,11 @@
       <c r="E192" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="H192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -7547,8 +8140,11 @@
       <c r="E193" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="H193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -7564,8 +8160,11 @@
       <c r="E194" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="H194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -7581,8 +8180,11 @@
       <c r="E195" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="H195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -7598,8 +8200,11 @@
       <c r="E196" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="H196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -7615,8 +8220,11 @@
       <c r="E197" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="H197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -7632,8 +8240,11 @@
       <c r="E198" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="H198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -7649,8 +8260,11 @@
       <c r="E199" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="H199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -7666,8 +8280,11 @@
       <c r="E200" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="H200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -7683,8 +8300,11 @@
       <c r="E201" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="H201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>402</v>
       </c>
@@ -7700,8 +8320,11 @@
       <c r="E202" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="H202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -7717,8 +8340,11 @@
       <c r="E203" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="H203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -7734,8 +8360,11 @@
       <c r="E204" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="H204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -7751,8 +8380,11 @@
       <c r="E205" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="H205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -7768,8 +8400,11 @@
       <c r="E206" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="H206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -7785,8 +8420,11 @@
       <c r="E207" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="H207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -7802,8 +8440,11 @@
       <c r="E208" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="H208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -7819,8 +8460,11 @@
       <c r="E209" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="H209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -7836,8 +8480,11 @@
       <c r="E210" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="H210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -7853,8 +8500,11 @@
       <c r="E211" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="H211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -7870,8 +8520,11 @@
       <c r="E212" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="H212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -7887,8 +8540,11 @@
       <c r="E213" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="H213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>426</v>
       </c>
@@ -7904,8 +8560,11 @@
       <c r="E214" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="H214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -7921,8 +8580,11 @@
       <c r="E215" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="H215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -7938,8 +8600,11 @@
       <c r="E216" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="H216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -7955,8 +8620,11 @@
       <c r="E217" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="H217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -7972,8 +8640,11 @@
       <c r="E218" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="H218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -7989,8 +8660,11 @@
       <c r="E219" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="H219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -8006,8 +8680,11 @@
       <c r="E220" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="H220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -8023,8 +8700,11 @@
       <c r="E221" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="H221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -8040,8 +8720,11 @@
       <c r="E222" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="H222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -8057,8 +8740,11 @@
       <c r="E223" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="H223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -8074,8 +8760,11 @@
       <c r="E224" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="H224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -8091,8 +8780,11 @@
       <c r="E225" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="H225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>450</v>
       </c>
@@ -8108,8 +8800,11 @@
       <c r="E226" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="H226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -8125,8 +8820,11 @@
       <c r="E227" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="H227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -8142,8 +8840,11 @@
       <c r="E228" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="H228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -8159,8 +8860,11 @@
       <c r="E229" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="H229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>458</v>
       </c>
@@ -8176,8 +8880,11 @@
       <c r="E230" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="H230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -8193,8 +8900,11 @@
       <c r="E231" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="H231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -8210,8 +8920,11 @@
       <c r="E232" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="H232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -8227,8 +8940,11 @@
       <c r="E233" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="H233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -8244,8 +8960,11 @@
       <c r="E234" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="H234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -8261,8 +8980,11 @@
       <c r="E235" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="H235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>470</v>
       </c>
@@ -8278,8 +9000,11 @@
       <c r="E236" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="H236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>472</v>
       </c>
@@ -8295,8 +9020,11 @@
       <c r="E237" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="H237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>474</v>
       </c>
@@ -8312,8 +9040,11 @@
       <c r="E238" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="H238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -8329,8 +9060,11 @@
       <c r="E239" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="H239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -8346,8 +9080,11 @@
       <c r="E240" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="H240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>480</v>
       </c>
@@ -8363,8 +9100,11 @@
       <c r="E241" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="H241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>482</v>
       </c>
@@ -8380,8 +9120,11 @@
       <c r="E242" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="H242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -8397,8 +9140,11 @@
       <c r="E243" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="H243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>486</v>
       </c>
@@ -8414,8 +9160,11 @@
       <c r="E244" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="H244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>488</v>
       </c>
@@ -8431,8 +9180,11 @@
       <c r="E245" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="H245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -8448,8 +9200,11 @@
       <c r="E246" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="H246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>492</v>
       </c>
@@ -8465,8 +9220,11 @@
       <c r="E247" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="H247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -8482,8 +9240,11 @@
       <c r="E248" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="H248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -8499,8 +9260,11 @@
       <c r="E249" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="H249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>498</v>
       </c>
@@ -8516,8 +9280,11 @@
       <c r="E250" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="H250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>500</v>
       </c>
@@ -8533,8 +9300,11 @@
       <c r="E251" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="H251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -8550,8 +9320,11 @@
       <c r="E252" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="H252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>504</v>
       </c>
@@ -8567,8 +9340,11 @@
       <c r="E253" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="H253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>506</v>
       </c>
@@ -8584,8 +9360,11 @@
       <c r="E254" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="H254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -8601,8 +9380,11 @@
       <c r="E255" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="H255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -8618,8 +9400,11 @@
       <c r="E256" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="H256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>512</v>
       </c>
@@ -8635,8 +9420,11 @@
       <c r="E257" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="H257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -8652,8 +9440,11 @@
       <c r="E258" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="H258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -8669,8 +9460,11 @@
       <c r="E259" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="H259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -8686,8 +9480,11 @@
       <c r="E260" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="H260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -8703,8 +9500,11 @@
       <c r="E261" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="H261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>522</v>
       </c>
@@ -8720,8 +9520,11 @@
       <c r="E262" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="H262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>524</v>
       </c>
@@ -8737,8 +9540,11 @@
       <c r="E263" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="H263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -8754,8 +9560,11 @@
       <c r="E264" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="H264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -8771,8 +9580,11 @@
       <c r="E265" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="H265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>530</v>
       </c>
@@ -8788,8 +9600,11 @@
       <c r="E266" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="H266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -8805,8 +9620,11 @@
       <c r="E267" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="H267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>534</v>
       </c>
@@ -8822,8 +9640,11 @@
       <c r="E268" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="H268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>536</v>
       </c>
@@ -8839,8 +9660,11 @@
       <c r="E269" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="H269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>538</v>
       </c>
@@ -8856,8 +9680,11 @@
       <c r="E270" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="H270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>540</v>
       </c>
@@ -8873,8 +9700,11 @@
       <c r="E271" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="H271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -8890,8 +9720,11 @@
       <c r="E272" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="H272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -8907,8 +9740,11 @@
       <c r="E273" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="H273" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -8924,8 +9760,11 @@
       <c r="E274" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="H274" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -8941,8 +9780,11 @@
       <c r="E275" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="H275" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -8958,8 +9800,11 @@
       <c r="E276" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="H276" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -8975,8 +9820,11 @@
       <c r="E277" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="H277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -8992,8 +9840,11 @@
       <c r="E278" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="H278" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -9009,8 +9860,11 @@
       <c r="E279" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="H279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -9026,8 +9880,11 @@
       <c r="E280" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="H280" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -9043,8 +9900,11 @@
       <c r="E281" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="H281" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -9060,8 +9920,11 @@
       <c r="E282" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="H282" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -9077,8 +9940,11 @@
       <c r="E283" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="H283" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -9094,8 +9960,11 @@
       <c r="E284" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="H284" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -9111,8 +9980,11 @@
       <c r="E285" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="H285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -9128,8 +10000,11 @@
       <c r="E286" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="H286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -9145,8 +10020,11 @@
       <c r="E287" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="H287" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -9162,8 +10040,11 @@
       <c r="E288" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="H288" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -9179,8 +10060,11 @@
       <c r="E289" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="H289" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>578</v>
       </c>
@@ -9196,8 +10080,11 @@
       <c r="E290" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="H290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>580</v>
       </c>
@@ -9213,8 +10100,11 @@
       <c r="E291" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="H291" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>582</v>
       </c>
@@ -9230,8 +10120,11 @@
       <c r="E292" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="H292" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>584</v>
       </c>
@@ -9247,8 +10140,11 @@
       <c r="E293" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="H293" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -9264,8 +10160,11 @@
       <c r="E294" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="H294" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>588</v>
       </c>
@@ -9281,8 +10180,11 @@
       <c r="E295" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="H295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>590</v>
       </c>
@@ -9298,8 +10200,11 @@
       <c r="E296" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="H296" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>592</v>
       </c>
@@ -9315,8 +10220,11 @@
       <c r="E297" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="H297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>594</v>
       </c>
@@ -9332,8 +10240,11 @@
       <c r="E298" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="H298" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>596</v>
       </c>
@@ -9349,8 +10260,11 @@
       <c r="E299" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="H299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>598</v>
       </c>
@@ -9366,8 +10280,11 @@
       <c r="E300" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="H300" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -9383,8 +10300,11 @@
       <c r="E301" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="H301" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>602</v>
       </c>
@@ -9400,8 +10320,11 @@
       <c r="E302" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="H302" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -9417,8 +10340,11 @@
       <c r="E303" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="H303" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>606</v>
       </c>
@@ -9434,8 +10360,11 @@
       <c r="E304" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="H304" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>608</v>
       </c>
@@ -9451,8 +10380,11 @@
       <c r="E305" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="H305" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -9468,8 +10400,11 @@
       <c r="E306" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="H306" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -9485,8 +10420,11 @@
       <c r="E307" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="H307" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>614</v>
       </c>
@@ -9502,8 +10440,11 @@
       <c r="E308" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="H308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -9519,8 +10460,11 @@
       <c r="E309" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="H309" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>618</v>
       </c>
@@ -9536,8 +10480,11 @@
       <c r="E310" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="H310" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>620</v>
       </c>
@@ -9553,8 +10500,11 @@
       <c r="E311" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="H311" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>622</v>
       </c>
@@ -9570,8 +10520,11 @@
       <c r="E312" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="H312" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>624</v>
       </c>
@@ -9587,8 +10540,11 @@
       <c r="E313" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="H313" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>626</v>
       </c>
@@ -9604,8 +10560,11 @@
       <c r="E314" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="H314" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>628</v>
       </c>
@@ -9621,8 +10580,11 @@
       <c r="E315" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="H315" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -9638,8 +10600,11 @@
       <c r="E316" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="H316" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>632</v>
       </c>
@@ -9655,8 +10620,11 @@
       <c r="E317" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="H317" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>634</v>
       </c>
@@ -9672,8 +10640,11 @@
       <c r="E318" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="H318" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>636</v>
       </c>
@@ -9689,8 +10660,11 @@
       <c r="E319" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="H319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>638</v>
       </c>
@@ -9706,8 +10680,11 @@
       <c r="E320" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="H320" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>640</v>
       </c>
@@ -9723,8 +10700,11 @@
       <c r="E321" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="H321" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>642</v>
       </c>
@@ -9740,8 +10720,11 @@
       <c r="E322" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="H322" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>644</v>
       </c>
@@ -9757,8 +10740,11 @@
       <c r="E323" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="H323" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>646</v>
       </c>
@@ -9774,8 +10760,11 @@
       <c r="E324" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="H324" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>648</v>
       </c>
@@ -9791,8 +10780,11 @@
       <c r="E325" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="H325" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>650</v>
       </c>
@@ -9808,8 +10800,11 @@
       <c r="E326" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="H326" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>652</v>
       </c>
@@ -9825,8 +10820,11 @@
       <c r="E327" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="H327" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>654</v>
       </c>
@@ -9842,8 +10840,11 @@
       <c r="E328" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="H328" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>656</v>
       </c>
@@ -9859,8 +10860,11 @@
       <c r="E329" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="H329" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>658</v>
       </c>
@@ -9876,8 +10880,11 @@
       <c r="E330" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="H330" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>660</v>
       </c>
@@ -9893,8 +10900,11 @@
       <c r="E331" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="H331" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>662</v>
       </c>
@@ -9910,8 +10920,11 @@
       <c r="E332" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="H332" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>664</v>
       </c>
@@ -9927,8 +10940,11 @@
       <c r="E333" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="H333" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>666</v>
       </c>
@@ -9944,8 +10960,11 @@
       <c r="E334" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="H334" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>668</v>
       </c>
@@ -9961,8 +10980,11 @@
       <c r="E335" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="H335" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>670</v>
       </c>
@@ -9978,8 +11000,11 @@
       <c r="E336" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="H336" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>672</v>
       </c>
@@ -9995,8 +11020,11 @@
       <c r="E337" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="H337" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>674</v>
       </c>
@@ -10012,8 +11040,11 @@
       <c r="E338" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="H338" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>676</v>
       </c>
@@ -10029,8 +11060,11 @@
       <c r="E339" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="H339" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>678</v>
       </c>
@@ -10046,8 +11080,11 @@
       <c r="E340" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="H340" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>680</v>
       </c>
@@ -10063,8 +11100,11 @@
       <c r="E341" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="H341" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>682</v>
       </c>
@@ -10080,8 +11120,11 @@
       <c r="E342" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="H342" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>684</v>
       </c>
@@ -10097,8 +11140,11 @@
       <c r="E343" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="H343" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>686</v>
       </c>
@@ -10114,8 +11160,11 @@
       <c r="E344" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="H344" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -10131,8 +11180,11 @@
       <c r="E345" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="H345" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>690</v>
       </c>
@@ -10148,8 +11200,11 @@
       <c r="E346" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="H346" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>692</v>
       </c>
@@ -10165,8 +11220,11 @@
       <c r="E347" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="H347" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>694</v>
       </c>
@@ -10182,8 +11240,11 @@
       <c r="E348" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="H348" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>696</v>
       </c>
@@ -10199,8 +11260,11 @@
       <c r="E349" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="H349" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>698</v>
       </c>
@@ -10216,8 +11280,11 @@
       <c r="E350" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="H350" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>700</v>
       </c>
@@ -10233,8 +11300,11 @@
       <c r="E351" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="H351" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>702</v>
       </c>
@@ -10250,8 +11320,11 @@
       <c r="E352" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="H352" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>704</v>
       </c>
@@ -10267,8 +11340,11 @@
       <c r="E353" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="H353" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>706</v>
       </c>
@@ -10284,8 +11360,11 @@
       <c r="E354" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="H354" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>708</v>
       </c>
@@ -10301,8 +11380,11 @@
       <c r="E355" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="H355" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>710</v>
       </c>
@@ -10318,8 +11400,11 @@
       <c r="E356" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="H356" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>712</v>
       </c>
@@ -10335,8 +11420,11 @@
       <c r="E357" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="H357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -10352,8 +11440,11 @@
       <c r="E358" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="H358" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>716</v>
       </c>
@@ -10369,8 +11460,11 @@
       <c r="E359" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="H359" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>718</v>
       </c>
@@ -10386,8 +11480,11 @@
       <c r="E360" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="H360" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>720</v>
       </c>
@@ -10403,8 +11500,11 @@
       <c r="E361" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="H361" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>722</v>
       </c>
@@ -10420,8 +11520,11 @@
       <c r="E362" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="H362" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>724</v>
       </c>
@@ -10437,8 +11540,11 @@
       <c r="E363" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="H363" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>726</v>
       </c>
@@ -10454,8 +11560,11 @@
       <c r="E364" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="H364" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>728</v>
       </c>
@@ -10471,8 +11580,11 @@
       <c r="E365" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="H365" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>730</v>
       </c>
@@ -10488,8 +11600,11 @@
       <c r="E366" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="H366" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>732</v>
       </c>
@@ -10505,8 +11620,11 @@
       <c r="E367" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="H367" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>734</v>
       </c>
@@ -10522,8 +11640,11 @@
       <c r="E368" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="H368" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>736</v>
       </c>
@@ -10539,8 +11660,11 @@
       <c r="E369" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="H369" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>738</v>
       </c>
@@ -10556,8 +11680,11 @@
       <c r="E370" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="H370" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>740</v>
       </c>
@@ -10573,8 +11700,11 @@
       <c r="E371" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="372" spans="1:5">
+      <c r="H371" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>742</v>
       </c>
@@ -10590,8 +11720,11 @@
       <c r="E372" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="373" spans="1:5">
+      <c r="H372" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>744</v>
       </c>
@@ -10607,8 +11740,11 @@
       <c r="E373" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="374" spans="1:5">
+      <c r="H373" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>746</v>
       </c>
@@ -10624,8 +11760,11 @@
       <c r="E374" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="375" spans="1:5">
+      <c r="H374" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>748</v>
       </c>
@@ -10641,8 +11780,11 @@
       <c r="E375" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="376" spans="1:5">
+      <c r="H375" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>750</v>
       </c>
@@ -10658,8 +11800,11 @@
       <c r="E376" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="377" spans="1:5">
+      <c r="H376" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>752</v>
       </c>
@@ -10675,8 +11820,11 @@
       <c r="E377" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="378" spans="1:5">
+      <c r="H377" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>754</v>
       </c>
@@ -10692,8 +11840,11 @@
       <c r="E378" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="379" spans="1:5">
+      <c r="H378" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>756</v>
       </c>
@@ -10709,8 +11860,11 @@
       <c r="E379" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="380" spans="1:5">
+      <c r="H379" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>758</v>
       </c>
@@ -10726,8 +11880,11 @@
       <c r="E380" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
+      <c r="H380" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>760</v>
       </c>
@@ -10743,8 +11900,11 @@
       <c r="E381" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="382" spans="1:5">
+      <c r="H381" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>762</v>
       </c>
@@ -10760,8 +11920,11 @@
       <c r="E382" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="383" spans="1:5">
+      <c r="H382" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>764</v>
       </c>
@@ -10777,8 +11940,11 @@
       <c r="E383" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="H383" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>766</v>
       </c>
@@ -10794,8 +11960,11 @@
       <c r="E384" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="385" spans="1:5">
+      <c r="H384" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>768</v>
       </c>
@@ -10811,8 +11980,11 @@
       <c r="E385" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
+      <c r="H385" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>770</v>
       </c>
@@ -10828,8 +12000,11 @@
       <c r="E386" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="387" spans="1:5">
+      <c r="H386" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>772</v>
       </c>
@@ -10845,8 +12020,11 @@
       <c r="E387" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
+      <c r="H387" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>774</v>
       </c>
@@ -10862,8 +12040,11 @@
       <c r="E388" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="389" spans="1:5">
+      <c r="H388" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>776</v>
       </c>
@@ -10879,8 +12060,11 @@
       <c r="E389" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="390" spans="1:5">
+      <c r="H389" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>778</v>
       </c>
@@ -10896,8 +12080,11 @@
       <c r="E390" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="391" spans="1:5">
+      <c r="H390" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>780</v>
       </c>
@@ -10913,8 +12100,11 @@
       <c r="E391" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
+      <c r="H391" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>782</v>
       </c>
@@ -10930,8 +12120,11 @@
       <c r="E392" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="393" spans="1:5">
+      <c r="H392" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>784</v>
       </c>
@@ -10947,8 +12140,11 @@
       <c r="E393" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="394" spans="1:5">
+      <c r="H393" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>786</v>
       </c>
@@ -10964,8 +12160,11 @@
       <c r="E394" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="H394" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>788</v>
       </c>
@@ -10981,8 +12180,11 @@
       <c r="E395" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="H395" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>790</v>
       </c>
@@ -10998,8 +12200,11 @@
       <c r="E396" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="397" spans="1:5">
+      <c r="H396" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>792</v>
       </c>
@@ -11015,8 +12220,11 @@
       <c r="E397" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="398" spans="1:5">
+      <c r="H397" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>794</v>
       </c>
@@ -11032,8 +12240,11 @@
       <c r="E398" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="399" spans="1:5">
+      <c r="H398" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>796</v>
       </c>
@@ -11049,8 +12260,11 @@
       <c r="E399" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="400" spans="1:5">
+      <c r="H399" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>798</v>
       </c>
@@ -11066,8 +12280,11 @@
       <c r="E400" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="H400" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>800</v>
       </c>
@@ -11083,8 +12300,11 @@
       <c r="E401" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="402" spans="1:5">
+      <c r="H401" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>802</v>
       </c>
@@ -11100,8 +12320,11 @@
       <c r="E402" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="403" spans="1:5">
+      <c r="H402" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>804</v>
       </c>
@@ -11117,8 +12340,11 @@
       <c r="E403" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="404" spans="1:5">
+      <c r="H403" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>806</v>
       </c>
@@ -11134,8 +12360,11 @@
       <c r="E404" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="405" spans="1:5">
+      <c r="H404" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>808</v>
       </c>
@@ -11151,8 +12380,11 @@
       <c r="E405" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="H405" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>810</v>
       </c>
@@ -11168,8 +12400,11 @@
       <c r="E406" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="407" spans="1:5">
+      <c r="H406" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>812</v>
       </c>
@@ -11185,8 +12420,11 @@
       <c r="E407" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="408" spans="1:5">
+      <c r="H407" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>814</v>
       </c>
@@ -11202,8 +12440,11 @@
       <c r="E408" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
+      <c r="H408" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>816</v>
       </c>
@@ -11219,8 +12460,11 @@
       <c r="E409" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="410" spans="1:5">
+      <c r="H409" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>818</v>
       </c>
@@ -11236,8 +12480,11 @@
       <c r="E410" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="411" spans="1:5">
+      <c r="H410" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>820</v>
       </c>
@@ -11253,8 +12500,11 @@
       <c r="E411" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="412" spans="1:5">
+      <c r="H411" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>822</v>
       </c>
@@ -11270,8 +12520,11 @@
       <c r="E412" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="413" spans="1:5">
+      <c r="H412" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>824</v>
       </c>
@@ -11287,8 +12540,11 @@
       <c r="E413" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="414" spans="1:5">
+      <c r="H413" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>826</v>
       </c>
@@ -11304,8 +12560,11 @@
       <c r="E414" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="415" spans="1:5">
+      <c r="H414" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>828</v>
       </c>
@@ -11321,8 +12580,11 @@
       <c r="E415" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="416" spans="1:5">
+      <c r="H415" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>830</v>
       </c>
@@ -11338,8 +12600,11 @@
       <c r="E416" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="417" spans="1:5">
+      <c r="H416" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>832</v>
       </c>
@@ -11355,8 +12620,11 @@
       <c r="E417" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="418" spans="1:5">
+      <c r="H417" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>834</v>
       </c>
@@ -11372,8 +12640,11 @@
       <c r="E418" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="419" spans="1:5">
+      <c r="H418" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" t="s">
         <v>836</v>
       </c>
@@ -11389,8 +12660,11 @@
       <c r="E419" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="420" spans="1:5">
+      <c r="H419" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>838</v>
       </c>
@@ -11406,8 +12680,11 @@
       <c r="E420" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="421" spans="1:5">
+      <c r="H420" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
         <v>840</v>
       </c>
@@ -11423,8 +12700,11 @@
       <c r="E421" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="422" spans="1:5">
+      <c r="H421" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>842</v>
       </c>
@@ -11440,8 +12720,11 @@
       <c r="E422" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="H422" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>844</v>
       </c>
@@ -11457,8 +12740,11 @@
       <c r="E423" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="424" spans="1:5">
+      <c r="H423" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>846</v>
       </c>
@@ -11474,8 +12760,11 @@
       <c r="E424" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="425" spans="1:5">
+      <c r="H424" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>848</v>
       </c>
@@ -11491,8 +12780,11 @@
       <c r="E425" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="426" spans="1:5">
+      <c r="H425" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>850</v>
       </c>
@@ -11508,8 +12800,11 @@
       <c r="E426" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="427" spans="1:5">
+      <c r="H426" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>852</v>
       </c>
@@ -11525,8 +12820,11 @@
       <c r="E427" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="H427" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" t="s">
         <v>854</v>
       </c>
@@ -11542,8 +12840,11 @@
       <c r="E428" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="429" spans="1:5">
+      <c r="H428" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" t="s">
         <v>856</v>
       </c>
@@ -11559,8 +12860,11 @@
       <c r="E429" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="430" spans="1:5">
+      <c r="H429" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" t="s">
         <v>858</v>
       </c>
@@ -11576,8 +12880,11 @@
       <c r="E430" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="431" spans="1:5">
+      <c r="H430" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" t="s">
         <v>860</v>
       </c>
@@ -11593,8 +12900,11 @@
       <c r="E431" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="432" spans="1:5">
+      <c r="H431" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" t="s">
         <v>862</v>
       </c>
@@ -11610,8 +12920,11 @@
       <c r="E432" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="433" spans="1:5">
+      <c r="H432" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>864</v>
       </c>
@@ -11627,8 +12940,11 @@
       <c r="E433" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="434" spans="1:5">
+      <c r="H433" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>866</v>
       </c>
@@ -11644,8 +12960,11 @@
       <c r="E434" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="435" spans="1:5">
+      <c r="H434" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>868</v>
       </c>
@@ -11661,8 +12980,11 @@
       <c r="E435" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="436" spans="1:5">
+      <c r="H435" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>870</v>
       </c>
@@ -11678,8 +13000,11 @@
       <c r="E436" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="437" spans="1:5">
+      <c r="H436" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>872</v>
       </c>
@@ -11695,8 +13020,11 @@
       <c r="E437" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="438" spans="1:5">
+      <c r="H437" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>874</v>
       </c>
@@ -11712,8 +13040,11 @@
       <c r="E438" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="439" spans="1:5">
+      <c r="H438" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>876</v>
       </c>
@@ -11729,8 +13060,11 @@
       <c r="E439" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="440" spans="1:5">
+      <c r="H439" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>878</v>
       </c>
@@ -11746,8 +13080,11 @@
       <c r="E440" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="441" spans="1:5">
+      <c r="H440" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>880</v>
       </c>
@@ -11763,8 +13100,11 @@
       <c r="E441" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="442" spans="1:5">
+      <c r="H441" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>882</v>
       </c>
@@ -11780,8 +13120,11 @@
       <c r="E442" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="443" spans="1:5">
+      <c r="H442" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>884</v>
       </c>
@@ -11797,8 +13140,11 @@
       <c r="E443" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="444" spans="1:5">
+      <c r="H443" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>886</v>
       </c>
@@ -11814,8 +13160,11 @@
       <c r="E444" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="445" spans="1:5">
+      <c r="H444" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>888</v>
       </c>
@@ -11831,8 +13180,11 @@
       <c r="E445" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="446" spans="1:5">
+      <c r="H445" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>890</v>
       </c>
@@ -11848,8 +13200,11 @@
       <c r="E446" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="447" spans="1:5">
+      <c r="H446" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447" t="s">
         <v>892</v>
       </c>
@@ -11865,8 +13220,11 @@
       <c r="E447" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="448" spans="1:5">
+      <c r="H447" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" t="s">
         <v>894</v>
       </c>
@@ -11882,8 +13240,11 @@
       <c r="E448" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="449" spans="1:5">
+      <c r="H448" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>896</v>
       </c>
@@ -11899,8 +13260,11 @@
       <c r="E449" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="450" spans="1:5">
+      <c r="H449" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>898</v>
       </c>
@@ -11916,8 +13280,11 @@
       <c r="E450" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="451" spans="1:5">
+      <c r="H450" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" t="s">
         <v>900</v>
       </c>
@@ -11933,8 +13300,11 @@
       <c r="E451" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="452" spans="1:5">
+      <c r="H451" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452" t="s">
         <v>902</v>
       </c>
@@ -11950,8 +13320,11 @@
       <c r="E452" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="453" spans="1:5">
+      <c r="H452" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453" t="s">
         <v>904</v>
       </c>
@@ -11967,8 +13340,11 @@
       <c r="E453" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="454" spans="1:5">
+      <c r="H453" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454" t="s">
         <v>906</v>
       </c>
@@ -11984,8 +13360,11 @@
       <c r="E454" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="455" spans="1:5">
+      <c r="H454" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455" t="s">
         <v>908</v>
       </c>
@@ -12001,8 +13380,11 @@
       <c r="E455" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="456" spans="1:5">
+      <c r="H455" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456" t="s">
         <v>910</v>
       </c>
@@ -12018,8 +13400,11 @@
       <c r="E456" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="457" spans="1:5">
+      <c r="H456" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457" t="s">
         <v>912</v>
       </c>
@@ -12035,8 +13420,11 @@
       <c r="E457" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="458" spans="1:5">
+      <c r="H457" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
         <v>914</v>
       </c>
@@ -12052,8 +13440,11 @@
       <c r="E458" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="459" spans="1:5">
+      <c r="H458" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>916</v>
       </c>
@@ -12069,8 +13460,11 @@
       <c r="E459" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="460" spans="1:5">
+      <c r="H459" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
         <v>918</v>
       </c>
@@ -12086,8 +13480,11 @@
       <c r="E460" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="461" spans="1:5">
+      <c r="H460" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
         <v>920</v>
       </c>
@@ -12103,8 +13500,11 @@
       <c r="E461" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="462" spans="1:5">
+      <c r="H461" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>922</v>
       </c>
@@ -12120,8 +13520,11 @@
       <c r="E462" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="463" spans="1:5">
+      <c r="H462" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" t="s">
         <v>924</v>
       </c>
@@ -12137,8 +13540,11 @@
       <c r="E463" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="464" spans="1:5">
+      <c r="H463" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" t="s">
         <v>926</v>
       </c>
@@ -12154,8 +13560,11 @@
       <c r="E464" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="465" spans="1:5">
+      <c r="H464" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>928</v>
       </c>
@@ -12171,8 +13580,11 @@
       <c r="E465" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="466" spans="1:5">
+      <c r="H465" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>930</v>
       </c>
@@ -12188,8 +13600,11 @@
       <c r="E466" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="467" spans="1:5">
+      <c r="H466" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" t="s">
         <v>932</v>
       </c>
@@ -12205,8 +13620,11 @@
       <c r="E467" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="468" spans="1:5">
+      <c r="H467" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>934</v>
       </c>
@@ -12222,8 +13640,11 @@
       <c r="E468" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="469" spans="1:5">
+      <c r="H468" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" t="s">
         <v>936</v>
       </c>
@@ -12239,8 +13660,11 @@
       <c r="E469" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="470" spans="1:5">
+      <c r="H469" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>938</v>
       </c>
@@ -12256,8 +13680,11 @@
       <c r="E470" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="471" spans="1:5">
+      <c r="H470" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" t="s">
         <v>940</v>
       </c>
@@ -12273,8 +13700,11 @@
       <c r="E471" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="472" spans="1:5">
+      <c r="H471" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>942</v>
       </c>
@@ -12290,8 +13720,11 @@
       <c r="E472" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="473" spans="1:5">
+      <c r="H472" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" t="s">
         <v>944</v>
       </c>
@@ -12307,8 +13740,11 @@
       <c r="E473" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="474" spans="1:5">
+      <c r="H473" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>946</v>
       </c>
@@ -12324,8 +13760,11 @@
       <c r="E474" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="475" spans="1:5">
+      <c r="H474" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>948</v>
       </c>
@@ -12341,8 +13780,11 @@
       <c r="E475" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="476" spans="1:5">
+      <c r="H475" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>950</v>
       </c>
@@ -12358,8 +13800,11 @@
       <c r="E476" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="477" spans="1:5">
+      <c r="H476" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>952</v>
       </c>
@@ -12375,8 +13820,11 @@
       <c r="E477" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="478" spans="1:5">
+      <c r="H477" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>954</v>
       </c>
@@ -12392,8 +13840,11 @@
       <c r="E478" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="479" spans="1:5">
+      <c r="H478" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" t="s">
         <v>956</v>
       </c>
@@ -12409,8 +13860,11 @@
       <c r="E479" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="480" spans="1:5">
+      <c r="H479" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>958</v>
       </c>
@@ -12426,8 +13880,11 @@
       <c r="E480" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="481" spans="1:5">
+      <c r="H480" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481" t="s">
         <v>960</v>
       </c>
@@ -12443,8 +13900,11 @@
       <c r="E481" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="482" spans="1:5">
+      <c r="H481" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" t="s">
         <v>962</v>
       </c>
@@ -12460,8 +13920,11 @@
       <c r="E482" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="483" spans="1:5">
+      <c r="H482" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483" t="s">
         <v>964</v>
       </c>
@@ -12477,8 +13940,11 @@
       <c r="E483" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="484" spans="1:5">
+      <c r="H483" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484" t="s">
         <v>966</v>
       </c>
@@ -12494,8 +13960,11 @@
       <c r="E484" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="485" spans="1:5">
+      <c r="H484" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485" t="s">
         <v>968</v>
       </c>
@@ -12511,8 +13980,11 @@
       <c r="E485" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="486" spans="1:5">
+      <c r="H485" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486" t="s">
         <v>970</v>
       </c>
@@ -12528,8 +14000,11 @@
       <c r="E486" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="487" spans="1:5">
+      <c r="H486" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487" t="s">
         <v>972</v>
       </c>
@@ -12545,8 +14020,11 @@
       <c r="E487" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="488" spans="1:5">
+      <c r="H487" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488" t="s">
         <v>974</v>
       </c>
@@ -12562,8 +14040,11 @@
       <c r="E488" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="489" spans="1:5">
+      <c r="H488" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489" t="s">
         <v>976</v>
       </c>
@@ -12579,8 +14060,11 @@
       <c r="E489" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="490" spans="1:5">
+      <c r="H489" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490" t="s">
         <v>978</v>
       </c>
@@ -12596,8 +14080,11 @@
       <c r="E490" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="491" spans="1:5">
+      <c r="H490" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>980</v>
       </c>
@@ -12613,8 +14100,11 @@
       <c r="E491" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="492" spans="1:5">
+      <c r="H491" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492" t="s">
         <v>982</v>
       </c>
@@ -12630,8 +14120,11 @@
       <c r="E492" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="493" spans="1:5">
+      <c r="H492" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493" t="s">
         <v>984</v>
       </c>
@@ -12647,8 +14140,11 @@
       <c r="E493" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="494" spans="1:5">
+      <c r="H493" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>986</v>
       </c>
@@ -12664,8 +14160,11 @@
       <c r="E494" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="495" spans="1:5">
+      <c r="H494" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>988</v>
       </c>
@@ -12681,8 +14180,11 @@
       <c r="E495" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="496" spans="1:5">
+      <c r="H495" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>990</v>
       </c>
@@ -12698,8 +14200,11 @@
       <c r="E496" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="497" spans="1:5">
+      <c r="H496" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
         <v>992</v>
       </c>
@@ -12715,8 +14220,11 @@
       <c r="E497" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="498" spans="1:5">
+      <c r="H497" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
         <v>994</v>
       </c>
@@ -12732,8 +14240,11 @@
       <c r="E498" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="499" spans="1:5">
+      <c r="H498" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499" t="s">
         <v>996</v>
       </c>
@@ -12749,8 +14260,11 @@
       <c r="E499" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="500" spans="1:5">
+      <c r="H499" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500" t="s">
         <v>998</v>
       </c>
@@ -12766,8 +14280,11 @@
       <c r="E500" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="501" spans="1:5">
+      <c r="H500" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501" t="s">
         <v>1000</v>
       </c>
@@ -12783,8 +14300,11 @@
       <c r="E501" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="502" spans="1:5">
+      <c r="H501" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502" t="s">
         <v>1002</v>
       </c>
@@ -12800,8 +14320,11 @@
       <c r="E502" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="503" spans="1:5">
+      <c r="H502" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503" t="s">
         <v>1004</v>
       </c>
@@ -12817,8 +14340,11 @@
       <c r="E503" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="504" spans="1:5">
+      <c r="H503" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504" t="s">
         <v>1006</v>
       </c>
@@ -12834,8 +14360,11 @@
       <c r="E504" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="505" spans="1:5">
+      <c r="H504" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505" t="s">
         <v>1008</v>
       </c>
@@ -12851,8 +14380,11 @@
       <c r="E505" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="506" spans="1:5">
+      <c r="H505" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506" t="s">
         <v>1010</v>
       </c>
@@ -12868,8 +14400,11 @@
       <c r="E506" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="507" spans="1:5">
+      <c r="H506" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507" t="s">
         <v>1012</v>
       </c>
@@ -12885,8 +14420,11 @@
       <c r="E507" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="508" spans="1:5">
+      <c r="H507" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508" t="s">
         <v>1014</v>
       </c>
@@ -12902,8 +14440,11 @@
       <c r="E508" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="509" spans="1:5">
+      <c r="H508" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509" t="s">
         <v>1016</v>
       </c>
@@ -12919,8 +14460,11 @@
       <c r="E509" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="510" spans="1:5">
+      <c r="H509" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510" t="s">
         <v>1018</v>
       </c>
@@ -12936,8 +14480,11 @@
       <c r="E510" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="511" spans="1:5">
+      <c r="H510" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511" t="s">
         <v>1020</v>
       </c>
@@ -12953,8 +14500,11 @@
       <c r="E511" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="512" spans="1:5">
+      <c r="H511" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512" t="s">
         <v>1022</v>
       </c>
@@ -12970,8 +14520,11 @@
       <c r="E512" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="513" spans="1:5">
+      <c r="H512" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
       <c r="A513" t="s">
         <v>1024</v>
       </c>
@@ -12987,8 +14540,11 @@
       <c r="E513" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="514" spans="1:5">
+      <c r="H513" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
       <c r="A514" t="s">
         <v>1026</v>
       </c>
@@ -13004,8 +14560,11 @@
       <c r="E514" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="515" spans="1:5">
+      <c r="H514" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
       <c r="A515" t="s">
         <v>1028</v>
       </c>
@@ -13021,8 +14580,11 @@
       <c r="E515" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="516" spans="1:5">
+      <c r="H515" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
       <c r="A516" t="s">
         <v>1030</v>
       </c>
@@ -13038,8 +14600,11 @@
       <c r="E516" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="517" spans="1:5">
+      <c r="H516" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
       <c r="A517" t="s">
         <v>1032</v>
       </c>
@@ -13055,8 +14620,11 @@
       <c r="E517" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="518" spans="1:5">
+      <c r="H517" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518" t="s">
         <v>1034</v>
       </c>
@@ -13072,8 +14640,11 @@
       <c r="E518" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="519" spans="1:5">
+      <c r="H518" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>1036</v>
       </c>
@@ -13089,8 +14660,11 @@
       <c r="E519" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="520" spans="1:5">
+      <c r="H519" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520" t="s">
         <v>1038</v>
       </c>
@@ -13106,8 +14680,11 @@
       <c r="E520" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="521" spans="1:5">
+      <c r="H520" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>1040</v>
       </c>
@@ -13123,8 +14700,11 @@
       <c r="E521" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="522" spans="1:5">
+      <c r="H521" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
       <c r="A522" t="s">
         <v>1042</v>
       </c>
@@ -13140,8 +14720,11 @@
       <c r="E522" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="523" spans="1:5">
+      <c r="H522" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523" t="s">
         <v>1044</v>
       </c>
@@ -13157,8 +14740,11 @@
       <c r="E523" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="524" spans="1:5">
+      <c r="H523" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
       <c r="A524" t="s">
         <v>1046</v>
       </c>
@@ -13174,8 +14760,11 @@
       <c r="E524" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="525" spans="1:5">
+      <c r="H524" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525" t="s">
         <v>1048</v>
       </c>
@@ -13191,8 +14780,11 @@
       <c r="E525" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="526" spans="1:5">
+      <c r="H525" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>1050</v>
       </c>
@@ -13208,8 +14800,11 @@
       <c r="E526" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="527" spans="1:5">
+      <c r="H526" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="A527" t="s">
         <v>1052</v>
       </c>
@@ -13225,8 +14820,11 @@
       <c r="E527" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="528" spans="1:5">
+      <c r="H527" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>1054</v>
       </c>
@@ -13242,8 +14840,11 @@
       <c r="E528" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="529" spans="1:5">
+      <c r="H528" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>1056</v>
       </c>
@@ -13259,8 +14860,11 @@
       <c r="E529" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="530" spans="1:5">
+      <c r="H529" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>1058</v>
       </c>
@@ -13276,8 +14880,11 @@
       <c r="E530" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="531" spans="1:5">
+      <c r="H530" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>1060</v>
       </c>
@@ -13293,8 +14900,11 @@
       <c r="E531" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="532" spans="1:5">
+      <c r="H531" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>1062</v>
       </c>
@@ -13310,8 +14920,11 @@
       <c r="E532" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="533" spans="1:5">
+      <c r="H532" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="A533" t="s">
         <v>1064</v>
       </c>
@@ -13327,8 +14940,11 @@
       <c r="E533" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="534" spans="1:5">
+      <c r="H533" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
         <v>1066</v>
       </c>
@@ -13344,8 +14960,11 @@
       <c r="E534" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="535" spans="1:5">
+      <c r="H534" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
         <v>1068</v>
       </c>
@@ -13361,8 +14980,11 @@
       <c r="E535" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="536" spans="1:5">
+      <c r="H535" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>1070</v>
       </c>
@@ -13378,8 +15000,11 @@
       <c r="E536" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="537" spans="1:5">
+      <c r="H536" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537" t="s">
         <v>1072</v>
       </c>
@@ -13395,8 +15020,11 @@
       <c r="E537" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="538" spans="1:5">
+      <c r="H537" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>1074</v>
       </c>
@@ -13412,8 +15040,11 @@
       <c r="E538" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="539" spans="1:5">
+      <c r="H538" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539" t="s">
         <v>1076</v>
       </c>
@@ -13429,8 +15060,11 @@
       <c r="E539" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="540" spans="1:5">
+      <c r="H539" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540" t="s">
         <v>1078</v>
       </c>
@@ -13446,8 +15080,11 @@
       <c r="E540" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="541" spans="1:5">
+      <c r="H540" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
       <c r="A541" t="s">
         <v>1080</v>
       </c>
@@ -13463,8 +15100,11 @@
       <c r="E541" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="542" spans="1:5">
+      <c r="H541" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
       <c r="A542" t="s">
         <v>1082</v>
       </c>
@@ -13480,8 +15120,11 @@
       <c r="E542" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="543" spans="1:5">
+      <c r="H542" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
       <c r="A543" t="s">
         <v>1084</v>
       </c>
@@ -13497,8 +15140,11 @@
       <c r="E543" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="544" spans="1:5">
+      <c r="H543" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
       <c r="A544" t="s">
         <v>1086</v>
       </c>
@@ -13514,8 +15160,11 @@
       <c r="E544" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="545" spans="1:5">
+      <c r="H544" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545" t="s">
         <v>1088</v>
       </c>
@@ -13531,8 +15180,11 @@
       <c r="E545" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="546" spans="1:5">
+      <c r="H545" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
       <c r="A546" t="s">
         <v>1090</v>
       </c>
@@ -13548,8 +15200,11 @@
       <c r="E546" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="547" spans="1:5">
+      <c r="H546" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
       <c r="A547" t="s">
         <v>1092</v>
       </c>
@@ -13565,8 +15220,11 @@
       <c r="E547" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="548" spans="1:5">
+      <c r="H547" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="A548" t="s">
         <v>1094</v>
       </c>
@@ -13582,8 +15240,11 @@
       <c r="E548" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="549" spans="1:5">
+      <c r="H548" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
       <c r="A549" t="s">
         <v>1096</v>
       </c>
@@ -13599,8 +15260,11 @@
       <c r="E549" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="550" spans="1:5">
+      <c r="H549" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
       <c r="A550" t="s">
         <v>1098</v>
       </c>
@@ -13616,8 +15280,11 @@
       <c r="E550" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="551" spans="1:5">
+      <c r="H550" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
       <c r="A551" t="s">
         <v>1100</v>
       </c>
@@ -13633,8 +15300,11 @@
       <c r="E551" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="552" spans="1:5">
+      <c r="H551" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
       <c r="A552" t="s">
         <v>1102</v>
       </c>
@@ -13650,8 +15320,11 @@
       <c r="E552" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="553" spans="1:5">
+      <c r="H552" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
       <c r="A553" t="s">
         <v>1104</v>
       </c>
@@ -13667,8 +15340,11 @@
       <c r="E553" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="554" spans="1:5">
+      <c r="H553" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="A554" t="s">
         <v>1106</v>
       </c>
@@ -13684,8 +15360,11 @@
       <c r="E554" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="555" spans="1:5">
+      <c r="H554" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
       <c r="A555" t="s">
         <v>1108</v>
       </c>
@@ -13701,8 +15380,11 @@
       <c r="E555" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="556" spans="1:5">
+      <c r="H555" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
       <c r="A556" t="s">
         <v>1110</v>
       </c>
@@ -13718,8 +15400,11 @@
       <c r="E556" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="557" spans="1:5">
+      <c r="H556" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
       <c r="A557" t="s">
         <v>1112</v>
       </c>
@@ -13735,8 +15420,11 @@
       <c r="E557" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="558" spans="1:5">
+      <c r="H557" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
       <c r="A558" t="s">
         <v>1114</v>
       </c>
@@ -13752,8 +15440,11 @@
       <c r="E558" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="559" spans="1:5">
+      <c r="H558" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
       <c r="A559" t="s">
         <v>1116</v>
       </c>
@@ -13769,8 +15460,11 @@
       <c r="E559" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="560" spans="1:5">
+      <c r="H559" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
       <c r="A560" t="s">
         <v>1118</v>
       </c>
@@ -13786,8 +15480,11 @@
       <c r="E560" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="561" spans="1:5">
+      <c r="H560" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
       <c r="A561" t="s">
         <v>1120</v>
       </c>
@@ -13803,8 +15500,11 @@
       <c r="E561" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="562" spans="1:5">
+      <c r="H561" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
       <c r="A562" t="s">
         <v>1122</v>
       </c>
@@ -13820,8 +15520,11 @@
       <c r="E562" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="563" spans="1:5">
+      <c r="H562" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
       <c r="A563" t="s">
         <v>1124</v>
       </c>
@@ -13837,8 +15540,11 @@
       <c r="E563" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="564" spans="1:5">
+      <c r="H563" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
       <c r="A564" t="s">
         <v>1126</v>
       </c>
@@ -13854,8 +15560,11 @@
       <c r="E564" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="565" spans="1:5">
+      <c r="H564" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
       <c r="A565" t="s">
         <v>1128</v>
       </c>
@@ -13871,8 +15580,11 @@
       <c r="E565" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="566" spans="1:5">
+      <c r="H565" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
       <c r="A566" t="s">
         <v>1130</v>
       </c>
@@ -13888,8 +15600,11 @@
       <c r="E566" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="567" spans="1:5">
+      <c r="H566" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
       <c r="A567" t="s">
         <v>1132</v>
       </c>
@@ -13905,8 +15620,11 @@
       <c r="E567" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="568" spans="1:5">
+      <c r="H567" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
       <c r="A568" t="s">
         <v>1134</v>
       </c>
@@ -13922,8 +15640,11 @@
       <c r="E568" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="569" spans="1:5">
+      <c r="H568" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
       <c r="A569" t="s">
         <v>1136</v>
       </c>
@@ -13939,8 +15660,11 @@
       <c r="E569" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="570" spans="1:5">
+      <c r="H569" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
       <c r="A570" t="s">
         <v>1138</v>
       </c>
@@ -13956,8 +15680,11 @@
       <c r="E570" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="571" spans="1:5">
+      <c r="H570" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
       <c r="A571" t="s">
         <v>1140</v>
       </c>
@@ -13973,8 +15700,11 @@
       <c r="E571" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="572" spans="1:5">
+      <c r="H571" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
       <c r="A572" t="s">
         <v>1142</v>
       </c>
@@ -13990,8 +15720,11 @@
       <c r="E572" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="573" spans="1:5">
+      <c r="H572" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
       <c r="A573" t="s">
         <v>1144</v>
       </c>
@@ -14007,8 +15740,11 @@
       <c r="E573" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="574" spans="1:5">
+      <c r="H573" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
       <c r="A574" t="s">
         <v>1146</v>
       </c>
@@ -14024,8 +15760,11 @@
       <c r="E574" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="575" spans="1:5">
+      <c r="H574" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
       <c r="A575" t="s">
         <v>1148</v>
       </c>
@@ -14041,8 +15780,11 @@
       <c r="E575" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="576" spans="1:5">
+      <c r="H575" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
       <c r="A576" t="s">
         <v>1150</v>
       </c>
@@ -14058,8 +15800,11 @@
       <c r="E576" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="577" spans="1:5">
+      <c r="H576" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
       <c r="A577" t="s">
         <v>1152</v>
       </c>
@@ -14075,8 +15820,11 @@
       <c r="E577" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="578" spans="1:5">
+      <c r="H577" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
       <c r="A578" t="s">
         <v>1154</v>
       </c>
@@ -14092,8 +15840,11 @@
       <c r="E578" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="579" spans="1:5">
+      <c r="H578" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
       <c r="A579" t="s">
         <v>1156</v>
       </c>
@@ -14109,8 +15860,11 @@
       <c r="E579" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="580" spans="1:5">
+      <c r="H579" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
       <c r="A580" t="s">
         <v>1158</v>
       </c>
@@ -14126,8 +15880,11 @@
       <c r="E580" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="581" spans="1:5">
+      <c r="H580" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
       <c r="A581" t="s">
         <v>1160</v>
       </c>
@@ -14143,8 +15900,11 @@
       <c r="E581" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="582" spans="1:5">
+      <c r="H581" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
       <c r="A582" t="s">
         <v>1162</v>
       </c>
@@ -14160,8 +15920,11 @@
       <c r="E582" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="583" spans="1:5">
+      <c r="H582" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
       <c r="A583" t="s">
         <v>1164</v>
       </c>
@@ -14177,8 +15940,11 @@
       <c r="E583" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="584" spans="1:5">
+      <c r="H583" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
       <c r="A584" t="s">
         <v>1166</v>
       </c>
@@ -14194,8 +15960,11 @@
       <c r="E584" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="585" spans="1:5">
+      <c r="H584" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
       <c r="A585" t="s">
         <v>1168</v>
       </c>
@@ -14211,8 +15980,11 @@
       <c r="E585" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="586" spans="1:5">
+      <c r="H585" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
       <c r="A586" t="s">
         <v>1170</v>
       </c>
@@ -14228,8 +16000,11 @@
       <c r="E586" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="587" spans="1:5">
+      <c r="H586" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
       <c r="A587" t="s">
         <v>1172</v>
       </c>
@@ -14245,8 +16020,11 @@
       <c r="E587" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="588" spans="1:5">
+      <c r="H587" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
       <c r="A588" t="s">
         <v>1174</v>
       </c>
@@ -14262,8 +16040,11 @@
       <c r="E588" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="589" spans="1:5">
+      <c r="H588" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
       <c r="A589" t="s">
         <v>1176</v>
       </c>
@@ -14279,8 +16060,11 @@
       <c r="E589" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="590" spans="1:5">
+      <c r="H589" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
       <c r="A590" t="s">
         <v>1178</v>
       </c>
@@ -14296,8 +16080,11 @@
       <c r="E590" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="591" spans="1:5">
+      <c r="H590" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
       <c r="A591" t="s">
         <v>1180</v>
       </c>
@@ -14313,8 +16100,11 @@
       <c r="E591" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="592" spans="1:5">
+      <c r="H591" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
       <c r="A592" t="s">
         <v>1182</v>
       </c>
@@ -14330,8 +16120,11 @@
       <c r="E592" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="593" spans="1:5">
+      <c r="H592" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
       <c r="A593" t="s">
         <v>1184</v>
       </c>
@@ -14347,8 +16140,11 @@
       <c r="E593" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="594" spans="1:5">
+      <c r="H593" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
       <c r="A594" t="s">
         <v>1186</v>
       </c>
@@ -14364,8 +16160,11 @@
       <c r="E594" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="595" spans="1:5">
+      <c r="H594" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
       <c r="A595" t="s">
         <v>1188</v>
       </c>
@@ -14381,8 +16180,11 @@
       <c r="E595" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="596" spans="1:5">
+      <c r="H595" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
       <c r="A596" t="s">
         <v>1190</v>
       </c>
@@ -14398,8 +16200,11 @@
       <c r="E596" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="597" spans="1:5">
+      <c r="H596" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
       <c r="A597" t="s">
         <v>1192</v>
       </c>
@@ -14415,8 +16220,11 @@
       <c r="E597" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="598" spans="1:5">
+      <c r="H597" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
       <c r="A598" t="s">
         <v>1194</v>
       </c>
@@ -14432,8 +16240,11 @@
       <c r="E598" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="599" spans="1:5">
+      <c r="H598" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
       <c r="A599" t="s">
         <v>1196</v>
       </c>
@@ -14449,8 +16260,11 @@
       <c r="E599" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="600" spans="1:5">
+      <c r="H599" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
       <c r="A600" t="s">
         <v>1198</v>
       </c>
@@ -14466,8 +16280,11 @@
       <c r="E600" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="601" spans="1:5">
+      <c r="H600" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
       <c r="A601" t="s">
         <v>1200</v>
       </c>
@@ -14483,8 +16300,11 @@
       <c r="E601" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="602" spans="1:5">
+      <c r="H601" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
       <c r="A602" t="s">
         <v>1202</v>
       </c>
@@ -14500,8 +16320,11 @@
       <c r="E602" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="603" spans="1:5">
+      <c r="H602" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
       <c r="A603" t="s">
         <v>1204</v>
       </c>
@@ -14517,8 +16340,11 @@
       <c r="E603" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="604" spans="1:5">
+      <c r="H603" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
       <c r="A604" t="s">
         <v>1206</v>
       </c>
@@ -14534,8 +16360,11 @@
       <c r="E604" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="605" spans="1:5">
+      <c r="H604" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
       <c r="A605" t="s">
         <v>1208</v>
       </c>
@@ -14551,8 +16380,11 @@
       <c r="E605" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="606" spans="1:5">
+      <c r="H605" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
       <c r="A606" t="s">
         <v>1210</v>
       </c>
@@ -14568,8 +16400,11 @@
       <c r="E606" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="607" spans="1:5">
+      <c r="H606" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
       <c r="A607" t="s">
         <v>1212</v>
       </c>
@@ -14585,8 +16420,11 @@
       <c r="E607" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="608" spans="1:5">
+      <c r="H607" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
       <c r="A608" t="s">
         <v>1214</v>
       </c>
@@ -14602,8 +16440,11 @@
       <c r="E608" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="609" spans="1:5">
+      <c r="H608" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
       <c r="A609" t="s">
         <v>1216</v>
       </c>
@@ -14619,8 +16460,11 @@
       <c r="E609" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="610" spans="1:5">
+      <c r="H609" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
       <c r="A610" t="s">
         <v>1218</v>
       </c>
@@ -14636,8 +16480,11 @@
       <c r="E610" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="611" spans="1:5">
+      <c r="H610" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
       <c r="A611" t="s">
         <v>1220</v>
       </c>
@@ -14653,8 +16500,11 @@
       <c r="E611" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="612" spans="1:5">
+      <c r="H611" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
       <c r="A612" t="s">
         <v>1222</v>
       </c>
@@ -14670,8 +16520,11 @@
       <c r="E612" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="613" spans="1:5">
+      <c r="H612" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
       <c r="A613" t="s">
         <v>1224</v>
       </c>
@@ -14687,8 +16540,11 @@
       <c r="E613" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="614" spans="1:5">
+      <c r="H613" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
       <c r="A614" t="s">
         <v>1226</v>
       </c>
@@ -14704,8 +16560,11 @@
       <c r="E614" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="615" spans="1:5">
+      <c r="H614" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
       <c r="A615" t="s">
         <v>1228</v>
       </c>
@@ -14721,8 +16580,11 @@
       <c r="E615" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="616" spans="1:5">
+      <c r="H615" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
       <c r="A616" t="s">
         <v>1230</v>
       </c>
@@ -14738,8 +16600,11 @@
       <c r="E616" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="617" spans="1:5">
+      <c r="H616" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
       <c r="A617" t="s">
         <v>1232</v>
       </c>
@@ -14755,8 +16620,11 @@
       <c r="E617" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="618" spans="1:5">
+      <c r="H617" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
       <c r="A618" t="s">
         <v>1234</v>
       </c>
@@ -14772,8 +16640,11 @@
       <c r="E618" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="619" spans="1:5">
+      <c r="H618" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
       <c r="A619" t="s">
         <v>1236</v>
       </c>
@@ -14789,8 +16660,11 @@
       <c r="E619" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="620" spans="1:5">
+      <c r="H619" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
       <c r="A620" t="s">
         <v>1238</v>
       </c>
@@ -14806,8 +16680,11 @@
       <c r="E620" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="621" spans="1:5">
+      <c r="H620" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
       <c r="A621" t="s">
         <v>1240</v>
       </c>
@@ -14823,8 +16700,11 @@
       <c r="E621" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="622" spans="1:5">
+      <c r="H621" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
       <c r="A622" t="s">
         <v>1242</v>
       </c>
@@ -14840,8 +16720,11 @@
       <c r="E622" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="623" spans="1:5">
+      <c r="H622" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
       <c r="A623" t="s">
         <v>1244</v>
       </c>
@@ -14857,9 +16740,13 @@
       <c r="E623" t="s">
         <v>1275</v>
       </c>
+      <c r="H623" t="s">
+        <v>1245</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
